--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.863735675322831</v>
+        <v>1.045828333333333</v>
       </c>
       <c r="H2">
-        <v>0.863735675322831</v>
+        <v>3.137485</v>
       </c>
       <c r="I2">
-        <v>0.02292061374166224</v>
+        <v>0.0274735881233672</v>
       </c>
       <c r="J2">
-        <v>0.02292061374166224</v>
+        <v>0.0274735881233672</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N2">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P2">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q2">
-        <v>4.733860801526215</v>
+        <v>6.407229982956112</v>
       </c>
       <c r="R2">
-        <v>4.733860801526215</v>
+        <v>57.665069846605</v>
       </c>
       <c r="S2">
-        <v>0.002277678104270181</v>
+        <v>0.002970166364836211</v>
       </c>
       <c r="T2">
-        <v>0.002277678104270181</v>
+        <v>0.002970166364836211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.863735675322831</v>
+        <v>1.045828333333333</v>
       </c>
       <c r="H3">
-        <v>0.863735675322831</v>
+        <v>3.137485</v>
       </c>
       <c r="I3">
-        <v>0.02292061374166224</v>
+        <v>0.0274735881233672</v>
       </c>
       <c r="J3">
-        <v>0.02292061374166224</v>
+        <v>0.0274735881233672</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N3">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P3">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q3">
-        <v>30.43888090188446</v>
+        <v>37.37515271037889</v>
       </c>
       <c r="R3">
-        <v>30.43888090188446</v>
+        <v>336.37637439341</v>
       </c>
       <c r="S3">
-        <v>0.01464554524424498</v>
+        <v>0.01732580565334527</v>
       </c>
       <c r="T3">
-        <v>0.01464554524424498</v>
+        <v>0.01732580565334527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.863735675322831</v>
+        <v>1.045828333333333</v>
       </c>
       <c r="H4">
-        <v>0.863735675322831</v>
+        <v>3.137485</v>
       </c>
       <c r="I4">
-        <v>0.02292061374166224</v>
+        <v>0.0274735881233672</v>
       </c>
       <c r="J4">
-        <v>0.02292061374166224</v>
+        <v>0.0274735881233672</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N4">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P4">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q4">
-        <v>12.46480406530751</v>
+        <v>15.48352229011611</v>
       </c>
       <c r="R4">
-        <v>12.46480406530751</v>
+        <v>139.351700611045</v>
       </c>
       <c r="S4">
-        <v>0.005997390393147077</v>
+        <v>0.00717761610518572</v>
       </c>
       <c r="T4">
-        <v>0.005997390393147077</v>
+        <v>0.00717761610518572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.9182047356029</v>
+        <v>29.10096633333333</v>
       </c>
       <c r="H5">
-        <v>28.9182047356029</v>
+        <v>87.302899</v>
       </c>
       <c r="I5">
-        <v>0.767391019942906</v>
+        <v>0.7644734203038186</v>
       </c>
       <c r="J5">
-        <v>0.767391019942906</v>
+        <v>0.7644734203038187</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N5">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P5">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q5">
-        <v>158.491491968552</v>
+        <v>178.2860323067008</v>
       </c>
       <c r="R5">
-        <v>158.491491968552</v>
+        <v>1604.574290760307</v>
       </c>
       <c r="S5">
-        <v>0.07625754455084502</v>
+        <v>0.08264713111377198</v>
       </c>
       <c r="T5">
-        <v>0.07625754455084502</v>
+        <v>0.08264713111377199</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.9182047356029</v>
+        <v>29.10096633333333</v>
       </c>
       <c r="H6">
-        <v>28.9182047356029</v>
+        <v>87.302899</v>
       </c>
       <c r="I6">
-        <v>0.767391019942906</v>
+        <v>0.7644734203038186</v>
       </c>
       <c r="J6">
-        <v>0.767391019942906</v>
+        <v>0.7644734203038187</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N6">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P6">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q6">
-        <v>1019.105514559566</v>
+        <v>1039.991962410588</v>
       </c>
       <c r="R6">
-        <v>1019.105514559566</v>
+        <v>9359.927661695294</v>
       </c>
       <c r="S6">
-        <v>0.4903385236221895</v>
+        <v>0.4821036789172318</v>
       </c>
       <c r="T6">
-        <v>0.4903385236221895</v>
+        <v>0.4821036789172319</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.9182047356029</v>
+        <v>29.10096633333333</v>
       </c>
       <c r="H7">
-        <v>28.9182047356029</v>
+        <v>87.302899</v>
       </c>
       <c r="I7">
-        <v>0.767391019942906</v>
+        <v>0.7644734203038186</v>
       </c>
       <c r="J7">
-        <v>0.767391019942906</v>
+        <v>0.7644734203038187</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N7">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P7">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q7">
-        <v>417.3264648528173</v>
+        <v>430.8407474962448</v>
       </c>
       <c r="R7">
-        <v>417.3264648528173</v>
+        <v>3877.566727466203</v>
       </c>
       <c r="S7">
-        <v>0.2007949517698714</v>
+        <v>0.1997226102728148</v>
       </c>
       <c r="T7">
-        <v>0.2007949517698714</v>
+        <v>0.1997226102728148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.90185309731003</v>
+        <v>7.919887</v>
       </c>
       <c r="H8">
-        <v>7.90185309731003</v>
+        <v>23.759661</v>
       </c>
       <c r="I8">
-        <v>0.2096883663154318</v>
+        <v>0.2080529915728142</v>
       </c>
       <c r="J8">
-        <v>0.2096883663154318</v>
+        <v>0.2080529915728142</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.48068226978917</v>
+        <v>6.126464333333334</v>
       </c>
       <c r="N8">
-        <v>5.48068226978917</v>
+        <v>18.379393</v>
       </c>
       <c r="O8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="P8">
-        <v>0.09937247448702043</v>
+        <v>0.1081098818071741</v>
       </c>
       <c r="Q8">
-        <v>43.30754616890572</v>
+        <v>48.52090522953034</v>
       </c>
       <c r="R8">
-        <v>43.30754616890572</v>
+        <v>436.688147065773</v>
       </c>
       <c r="S8">
-        <v>0.02083725183190524</v>
+        <v>0.02249258432856593</v>
       </c>
       <c r="T8">
-        <v>0.02083725183190524</v>
+        <v>0.02249258432856594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.90185309731003</v>
+        <v>7.919887</v>
       </c>
       <c r="H9">
-        <v>7.90185309731003</v>
+        <v>23.759661</v>
       </c>
       <c r="I9">
-        <v>0.2096883663154318</v>
+        <v>0.2080529915728142</v>
       </c>
       <c r="J9">
-        <v>0.2096883663154318</v>
+        <v>0.2080529915728142</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.2409675454329</v>
+        <v>35.73736866666667</v>
       </c>
       <c r="N9">
-        <v>35.2409675454329</v>
+        <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216607</v>
       </c>
       <c r="P9">
-        <v>0.638968284589349</v>
+        <v>0.6306349784216608</v>
       </c>
       <c r="Q9">
-        <v>278.4689485510812</v>
+        <v>283.0359215173407</v>
       </c>
       <c r="R9">
-        <v>278.4689485510812</v>
+        <v>2547.323293656066</v>
       </c>
       <c r="S9">
-        <v>0.1339842157229145</v>
+        <v>0.1312054938510836</v>
       </c>
       <c r="T9">
-        <v>0.1339842157229145</v>
+        <v>0.1312054938510837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.90185309731003</v>
+        <v>7.919887</v>
       </c>
       <c r="H10">
-        <v>7.90185309731003</v>
+        <v>23.759661</v>
       </c>
       <c r="I10">
-        <v>0.2096883663154318</v>
+        <v>0.2080529915728142</v>
       </c>
       <c r="J10">
-        <v>0.2096883663154318</v>
+        <v>0.2080529915728142</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4312715352977</v>
+        <v>14.80503233333333</v>
       </c>
       <c r="N10">
-        <v>14.4312715352977</v>
+        <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="P10">
-        <v>0.2616592409236305</v>
+        <v>0.2612551397711651</v>
       </c>
       <c r="Q10">
-        <v>114.0337876793142</v>
+        <v>117.2541831113464</v>
       </c>
       <c r="R10">
-        <v>114.0337876793142</v>
+        <v>1055.287648002117</v>
       </c>
       <c r="S10">
-        <v>0.05486689876061206</v>
+        <v>0.0543549133931646</v>
       </c>
       <c r="T10">
-        <v>0.05486689876061206</v>
+        <v>0.05435491339316461</v>
       </c>
     </row>
   </sheetData>
